--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_39.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77234.85500057248</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77234.85500057248</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1187534184.523527</v>
+        <v>42810078.06684928</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11862.58381730035</v>
+        <v>904235.1038374283</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23521.13840662908</v>
+        <v>1774494.693986251</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35176.99457642698</v>
+        <v>2644754.284135074</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>47072.7533221614</v>
+        <v>3514141.628956918</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>58968.51206789582</v>
+        <v>4383528.973778762</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>70864.26715523623</v>
+        <v>5252916.318600604</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82760.01133357838</v>
+        <v>6122303.663422443</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>94655.76642091881</v>
+        <v>6991691.008244283</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>106551.5251666532</v>
+        <v>7861078.353066121</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>118447.2839123877</v>
+        <v>8730465.697887959</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>130343.0389997281</v>
+        <v>9599853.042709798</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>142238.7319660446</v>
+        <v>10469240.38753164</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>154134.490711779</v>
+        <v>11338627.73235349</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>166030.2252384704</v>
+        <v>12208015.07717534</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>177925.9839842049</v>
+        <v>13077402.42199719</v>
       </c>
     </row>
   </sheetData>
